--- a/medicine/Sexualité et sexologie/Les_Chatouilles/Les_Chatouilles.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Chatouilles/Les_Chatouilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chatouilles est un film dramatique français écrit et réalisé par Andréa Bescond et Éric Métayer, sorti en 2018. 
-Il s’agit de l’adaptation de leur pièce de théâtre Les Chatouilles ou la Danse de la colère, récompensée du molière seule en scène (2016)[1]. L'histoire s'inspire du drame de l'enfance d'Andréa Bescond qui a été victime de violences sexuelles[2].
+Il s’agit de l’adaptation de leur pièce de théâtre Les Chatouilles ou la Danse de la colère, récompensée du molière seule en scène (2016). L'histoire s'inspire du drame de l'enfance d'Andréa Bescond qui a été victime de violences sexuelles.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au travers des séances psy d’Odette, le film retrace sa vie depuis ses 8 ans, moment où un événement tragique vient bouleverser sa vie : un ami de la famille commence à l’agresser sexuellement. 
 Comment va-t-elle s’en sortir, sachant qu’elle est déjà dans un contexte familial très toxique induit par sa mère et que la communication avec elle est impossible ? 
@@ -544,12 +558,14 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Unifrance
 Titre original : Les Chatouilles
 Titre international : Little Tickles
-Réalisation et scénario : Andréa Bescond et Éric Métayer, d’après leur pièce Les Chatouilles ou la Danse de la colère[1]
+Réalisation et scénario : Andréa Bescond et Éric Métayer, d’après leur pièce Les Chatouilles ou la Danse de la colère
 Production : François Kraus et Denis Pineau-Valencienne
 Décors : Éric Barboza
 Costumes : Isabelle Pannetier
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andréa Bescond : Odette Le Nadant, adulte
 Cyrille Mairesse : Odette, enfant
@@ -647,12 +665,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Festivals et sorties
-Les Chatouilles est sélectionné dans « Un certain regard » et projeté le 14 mai 2018 au Festival de Cannes, avant la sortie nationale le 14 novembre 2018. Il est également sélectionné au Festival du cinéma américain de Deauville où les réalisateurs Andréa Bescond et Éric Métayer obtiennent le prix d'Ornano-Valenti en septembre 2018 et au Festival du film de Hambourg pour le prix du meilleur film en octobre 2018.
+          <t>Festivals et sorties</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chatouilles est sélectionné dans « Un certain regard » et projeté le 14 mai 2018 au Festival de Cannes, avant la sortie nationale le 14 novembre 2018. Il est également sélectionné au Festival du cinéma américain de Deauville où les réalisateurs Andréa Bescond et Éric Métayer obtiennent le prix d'Ornano-Valenti en septembre 2018 et au Festival du film de Hambourg pour le prix du meilleur film en octobre 2018.
 Dans les pays francophones, il sort le 14 novembre 2018 en Suisse romande et le 9 janvier 2019 en Belgique.
-Critiques
-Le Point écrit que le film est un « coup de poing qui dénonce la pédophilie »[3]. La Croix mentionne également qu’il s’agit d’un « coup de poing qui déborde de l’énergie de la colère de sa réalisatrice et parvient avec virtuosité à reconstituer les méandres de sa reconstruction »[4]. Télérama commente « [d’]une enfance traumatisée par le viol, Andréa Bescond tire un récit alerte sur la résilience et la joie de vivre malgré tout. Un tour de force »[5].
-Box-office</t>
+</t>
         </is>
       </c>
     </row>
@@ -677,20 +698,96 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Point écrit que le film est un « coup de poing qui dénonce la pédophilie ». La Croix mentionne également qu’il s’agit d’un « coup de poing qui déborde de l’énergie de la colère de sa réalisatrice et parvient avec virtuosité à reconstituer les méandres de sa reconstruction ». Télérama commente « [d’]une enfance traumatisée par le viol, Andréa Bescond tire un récit alerte sur la résilience et la joie de vivre malgré tout. Un tour de force ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Chatouilles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Chatouilles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival du cinéma américain de Deauville 2018 : prix d'Ornano-Valenti pour Andréa Bescond et Éric Métayer.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival du cinéma américain de Deauville 2018 : prix d'Ornano-Valenti pour Andréa Bescond et Éric Métayer.
 Festival du film de Hambourg 2018 — « Voilà! » : prix du meilleur film pour Andréa Bescond et Éric Métayer.
-César 2019[7] :
+César 2019 :
 césar de la meilleure adaptation pour Andréa Bescond et Éric Métayer ;
 césar de la meilleure actrice dans un second rôle pour Karin Viard.
-Le prix cinéma 2018 de la fondation Barrière lui a été remis[8].
-Nominations et sélections
-Festival de Cannes 2018 - « Un certain regard » : caméra d'or.
+Le prix cinéma 2018 de la fondation Barrière lui a été remis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Chatouilles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Chatouilles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2018 - « Un certain regard » : caméra d'or.
 Festival international du film français de Dublin 2018 - « Sélection officielle ».
 Festival international du film de Chicago 2018 - « New directors competition » :
 prix Roger-Ebert des meilleurs nouveaux réalisateurs pour Andréa Bescond et Éric Métayer ;
